--- a/hiragana7.xlsx
+++ b/hiragana7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mt00212\Documents\Tasks\Probabilistic Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uni\PhD\Tasks\Probabilistic Learning Pavlovia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,12 +32,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>corrAns0</t>
   </si>
   <si>
@@ -46,12 +40,18 @@
   <si>
     <t>letter20</t>
   </si>
+  <si>
+    <t>p1.jpg</t>
+  </si>
+  <si>
+    <t>p2.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,11 @@
       <sz val="60"/>
       <color theme="1"/>
       <name val="hiragana tfb"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri "/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,10 +377,10 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
@@ -388,23 +394,23 @@
     <col min="13" max="13" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="78.75">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -412,12 +418,12 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+    <row r="3" spans="1:5" ht="78.75">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -425,12 +431,12 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
+    <row r="4" spans="1:5" ht="78.75">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -438,12 +444,12 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
+    <row r="5" spans="1:5" ht="78.75">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -451,12 +457,12 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
+    <row r="6" spans="1:5" ht="78.75">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -464,12 +470,12 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
+    <row r="7" spans="1:5" ht="78.75">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -477,12 +483,12 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
+    <row r="8" spans="1:5" ht="78.75">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -490,12 +496,12 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
+    <row r="9" spans="1:5" ht="78.75">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -503,12 +509,12 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
+    <row r="10" spans="1:5" ht="78.75">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -516,12 +522,12 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
+    <row r="11" spans="1:5" ht="78.75">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -529,391 +535,391 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="12" spans="1:5" ht="78.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="13" spans="1:5" ht="78.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="14" spans="1:5" ht="78.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="15" spans="1:5" ht="78.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="16" spans="1:5" ht="78.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="17" spans="1:5" ht="78.75">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="18" spans="1:5" ht="78.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="19" spans="1:5" ht="78.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="20" spans="1:5" ht="78.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="21" spans="1:5" ht="78.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="22" spans="1:5" ht="78.75">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="23" spans="1:5" ht="78.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="24" spans="1:5" ht="78.75">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="25" spans="1:5" ht="78.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="26" spans="1:5" ht="78.75">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="27" spans="1:5" ht="78.75">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="28" spans="1:5" ht="78.75">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="29" spans="1:5" ht="78.75">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="30" spans="1:5" ht="78.75">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="31" spans="1:5" ht="78.75">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="32" spans="1:5" ht="78.75">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="33" spans="1:5" ht="78.75">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="34" spans="1:5" ht="78.75">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="35" spans="1:5" ht="78.75">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="36" spans="1:5" ht="78.75">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="37" spans="1:5" ht="78.75">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="38" spans="1:5" ht="78.75">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="39" spans="1:5" ht="78.75">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="40" spans="1:5" ht="78.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="41" spans="1:5" ht="78.75">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="42" spans="1:5" ht="78.75">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="43" spans="1:5" ht="78.75">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="44" spans="1:5" ht="78.75">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="45" spans="1:5" ht="78.75">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="46" spans="1:5" ht="78.75">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="47" spans="1:5" ht="78.75">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="48" spans="1:5" ht="78.75">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="49" spans="1:5" ht="78.75">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="50" spans="1:5" ht="78.75">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="51" spans="1:5" ht="78.75">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="52" spans="1:5" ht="78.75">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="53" spans="1:5" ht="78.75">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="54" spans="1:5" ht="78.75">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="55" spans="1:5" ht="78.75">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="56" spans="1:5" ht="78.75">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="57" spans="1:5" ht="78.75">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="58" spans="1:5" ht="78.75">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="59" spans="1:5" ht="78.75">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="60" spans="1:5" ht="78.75">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="61" spans="1:5" ht="78.75">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="62" spans="1:5" ht="78.75">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="63" spans="1:5" ht="78.75">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="64" spans="1:5" ht="78.75">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="65" spans="1:5" ht="78.75">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="66" spans="1:5" ht="78.75">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="67" spans="1:5" ht="78.75">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="68" spans="1:5" ht="78.75">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="69" spans="1:5" ht="78.75">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="70" spans="1:5" ht="78.75">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="71" spans="1:5" ht="78.75">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="72" spans="1:5" ht="78.75">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="73" spans="1:5" ht="78.75">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="74" spans="1:5" ht="78.75">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="75" spans="1:5" ht="78.75">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" ht="78.75" x14ac:dyDescent="1.05">
+    <row r="76" spans="1:5" ht="78.75">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
@@ -921,5 +927,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>